--- a/data/source/industries/other_transport.xlsx
+++ b/data/source/industries/other_transport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\coding_projects\bls_data\data\output\08_other transportation equipment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\coding_projects\bls_data\data\source\industries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01009274-EFB8-480E-8EAF-B0D4A02260A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CA7FC3-64A1-4F5A-85C1-E080B56E2FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31950" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,6 +506,12 @@
       <c r="J3">
         <v>4.3</v>
       </c>
+      <c r="K3">
+        <v>7.5</v>
+      </c>
+      <c r="L3">
+        <v>2.8</v>
+      </c>
       <c r="M3">
         <v>3.8</v>
       </c>
@@ -526,6 +532,9 @@
       <c r="E4">
         <v>80.13</v>
       </c>
+      <c r="F4">
+        <v>2.06</v>
+      </c>
       <c r="G4">
         <v>38.9</v>
       </c>
@@ -539,24 +548,54 @@
         <v>3.2</v>
       </c>
       <c r="K4">
-        <v>7.5</v>
+        <v>9.9</v>
       </c>
       <c r="L4">
-        <v>2.8</v>
+        <v>2.1</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1961</v>
       </c>
+      <c r="B5">
+        <v>30.3</v>
+      </c>
       <c r="C5">
         <v>3.5</v>
       </c>
+      <c r="D5">
+        <v>24.3</v>
+      </c>
       <c r="E5">
         <v>83.71</v>
       </c>
+      <c r="F5">
+        <v>2.13</v>
+      </c>
+      <c r="G5">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="H5">
+        <v>1.8</v>
+      </c>
+      <c r="I5">
+        <v>7.8</v>
+      </c>
+      <c r="J5">
+        <v>3.9</v>
+      </c>
+      <c r="K5">
+        <v>6.9</v>
+      </c>
+      <c r="L5">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="M5">
-        <v>7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -564,28 +603,40 @@
         <v>1962</v>
       </c>
       <c r="B6">
-        <v>30.3</v>
+        <v>35.4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>28.6</v>
       </c>
       <c r="E6">
         <v>86.22</v>
       </c>
       <c r="F6">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="G6">
-        <v>39.299999999999997</v>
+        <v>40.1</v>
       </c>
       <c r="H6">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="I6">
-        <v>7.8</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J6">
+        <v>5.3</v>
       </c>
       <c r="K6">
-        <v>9.9</v>
+        <v>7.4</v>
       </c>
       <c r="L6">
-        <v>2.1</v>
+        <v>2.7</v>
+      </c>
+      <c r="M6">
+        <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -593,25 +644,40 @@
         <v>1963</v>
       </c>
       <c r="B7">
-        <v>35.4</v>
+        <v>42.6</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D7">
-        <v>24.3</v>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E7">
+        <v>91.84</v>
+      </c>
+      <c r="F7">
+        <v>2.2400000000000002</v>
       </c>
       <c r="G7">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="I7">
-        <v>8.1999999999999993</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>3.9</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K7">
+        <v>7.1</v>
+      </c>
+      <c r="L7">
+        <v>2.9</v>
+      </c>
+      <c r="M7">
+        <v>2.8</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -619,37 +685,40 @@
         <v>1964</v>
       </c>
       <c r="B8">
-        <v>42.6</v>
+        <v>50.7</v>
       </c>
       <c r="C8">
-        <v>4.9000000000000004</v>
+        <v>5.7</v>
+      </c>
+      <c r="D8">
+        <v>41.8</v>
       </c>
       <c r="E8">
-        <v>91.84</v>
+        <v>93.89</v>
       </c>
       <c r="F8">
-        <v>2.13</v>
+        <v>2.29</v>
       </c>
       <c r="G8">
         <v>41</v>
       </c>
       <c r="H8">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J8">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="K8">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="L8">
-        <v>2.2000000000000002</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -657,31 +726,40 @@
         <v>1965</v>
       </c>
       <c r="B9">
-        <v>50.7</v>
+        <v>57.3</v>
+      </c>
+      <c r="C9">
+        <v>6.1</v>
       </c>
       <c r="D9">
-        <v>28.6</v>
+        <v>47.1</v>
       </c>
       <c r="E9">
-        <v>93.89</v>
+        <v>93.09</v>
       </c>
       <c r="F9">
-        <v>2.15</v>
+        <v>2.31</v>
       </c>
       <c r="G9">
-        <v>41</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="H9">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I9">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J9">
-        <v>5.0999999999999996</v>
+        <v>6.5</v>
       </c>
       <c r="K9">
-        <v>7.4</v>
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>4.2</v>
+      </c>
+      <c r="M9">
+        <v>2.4</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -689,37 +767,40 @@
         <v>1966</v>
       </c>
       <c r="B10">
-        <v>57.3</v>
+        <v>63.4</v>
       </c>
       <c r="C10">
-        <v>5.7</v>
+        <v>7.3</v>
       </c>
       <c r="D10">
-        <v>34.799999999999997</v>
+        <v>52.2</v>
       </c>
       <c r="E10">
-        <v>93.09</v>
+        <v>95.52</v>
+      </c>
+      <c r="F10">
+        <v>2.4</v>
       </c>
       <c r="G10">
-        <v>40.299999999999997</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="H10">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="I10">
-        <v>8.1999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="J10">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="K10">
-        <v>7.1</v>
+        <v>10.4</v>
       </c>
       <c r="L10">
-        <v>2.7</v>
-      </c>
-      <c r="M10">
-        <v>3.5</v>
+        <v>5.4</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -727,31 +808,40 @@
         <v>1967</v>
       </c>
       <c r="B11">
-        <v>634</v>
+        <v>67.2</v>
+      </c>
+      <c r="C11">
+        <v>8.5</v>
+      </c>
+      <c r="D11">
+        <v>55.3</v>
       </c>
       <c r="E11">
-        <v>95.52</v>
+        <v>102.11</v>
       </c>
       <c r="F11">
-        <v>2.2400000000000002</v>
+        <v>2.54</v>
       </c>
       <c r="G11">
-        <v>39.799999999999997</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="H11">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="J11">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="K11">
-        <v>7.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L11">
-        <v>2.9</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M11">
+        <v>1.9</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -759,40 +849,40 @@
         <v>1968</v>
       </c>
       <c r="B12">
-        <v>67.2</v>
+        <v>84.6</v>
       </c>
       <c r="C12">
-        <v>6.1</v>
+        <v>11.1</v>
       </c>
       <c r="D12">
-        <v>41.8</v>
+        <v>71</v>
       </c>
       <c r="E12">
-        <v>102.11</v>
+        <v>111.08</v>
       </c>
       <c r="F12">
-        <v>2.29</v>
+        <v>2.77</v>
       </c>
       <c r="G12">
-        <v>40.200000000000003</v>
+        <v>40.1</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="K12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="M12">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -800,31 +890,40 @@
         <v>1969</v>
       </c>
       <c r="B13">
-        <v>84.6</v>
+        <v>104.7</v>
+      </c>
+      <c r="C13">
+        <v>13.7</v>
+      </c>
+      <c r="D13">
+        <v>87</v>
       </c>
       <c r="E13">
-        <v>111.08</v>
+        <v>115.53</v>
       </c>
       <c r="F13">
-        <v>2.31</v>
+        <v>2.91</v>
       </c>
       <c r="G13">
-        <v>40.1</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I13">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="J13">
         <v>7.7</v>
       </c>
       <c r="K13">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="L13">
-        <v>4.2</v>
+        <v>5.6</v>
+      </c>
+      <c r="M13">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -832,40 +931,40 @@
         <v>1970</v>
       </c>
       <c r="B14">
-        <v>104.7</v>
+        <v>111.4</v>
       </c>
       <c r="C14">
-        <v>7.3</v>
+        <v>15.2</v>
       </c>
       <c r="D14">
-        <v>47.1</v>
+        <v>91.5</v>
       </c>
       <c r="E14">
-        <v>115.53</v>
+        <v>118.81</v>
       </c>
       <c r="F14">
-        <v>2.4</v>
+        <v>3.07</v>
       </c>
       <c r="G14">
-        <v>39.700000000000003</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="H14">
-        <v>2.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I14">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="J14">
-        <v>8.4</v>
+        <v>6.3</v>
       </c>
       <c r="K14">
-        <v>8.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="L14">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="M14">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -873,28 +972,40 @@
         <v>1971</v>
       </c>
       <c r="B15">
-        <v>111.4</v>
+        <v>131.9</v>
+      </c>
+      <c r="C15">
+        <v>17.3</v>
+      </c>
+      <c r="D15">
+        <v>108.6</v>
       </c>
       <c r="E15">
-        <v>118.81</v>
+        <v>129.75</v>
       </c>
       <c r="F15">
-        <v>2.54</v>
+        <v>3.31</v>
       </c>
       <c r="G15">
-        <v>38.700000000000003</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="H15">
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
+      </c>
+      <c r="I15">
+        <v>8.1999999999999993</v>
       </c>
       <c r="J15">
-        <v>7.7</v>
+        <v>6.4</v>
       </c>
       <c r="K15">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="L15">
-        <v>4.9000000000000004</v>
+        <v>3.6</v>
+      </c>
+      <c r="M15">
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -902,31 +1013,40 @@
         <v>1972</v>
       </c>
       <c r="B16">
-        <v>131.9</v>
+        <v>162.9</v>
       </c>
       <c r="C16">
-        <v>8.5</v>
+        <v>22.8</v>
       </c>
       <c r="D16">
-        <v>52.2</v>
+        <v>135.5</v>
+      </c>
+      <c r="E16">
+        <v>138.94999999999999</v>
       </c>
       <c r="F16">
-        <v>2.77</v>
+        <v>3.5</v>
+      </c>
+      <c r="G16">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H16">
+        <v>3.1</v>
       </c>
       <c r="I16">
-        <v>7.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J16">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="L16">
-        <v>5.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M16">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -934,226 +1054,80 @@
         <v>1973</v>
       </c>
       <c r="B17">
-        <v>162.9</v>
+        <v>167.7</v>
+      </c>
+      <c r="C17">
+        <v>26.6</v>
+      </c>
+      <c r="D17">
+        <v>137.30000000000001</v>
       </c>
       <c r="E17">
-        <v>129.75</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="F17">
-        <v>2.91</v>
+        <v>3.69</v>
       </c>
       <c r="G17">
-        <v>39.200000000000003</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="H17">
         <v>2.6</v>
       </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>7.1</v>
+      </c>
       <c r="K17">
-        <v>8.5</v>
+        <v>9.6</v>
       </c>
       <c r="L17">
         <v>5.6</v>
+      </c>
+      <c r="M17">
+        <v>2.4</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1974</v>
       </c>
+      <c r="B18">
+        <v>130.6</v>
+      </c>
       <c r="C18">
-        <v>11.1</v>
+        <v>22.6</v>
       </c>
       <c r="D18">
-        <v>55.3</v>
+        <v>103.4</v>
       </c>
       <c r="E18">
-        <v>138.94999999999999</v>
+        <v>148.6</v>
       </c>
       <c r="F18">
-        <v>3.07</v>
+        <v>3.88</v>
       </c>
       <c r="G18">
-        <v>39.700000000000003</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="H18">
-        <v>3.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I18">
-        <v>8.1999999999999993</v>
+        <v>7</v>
       </c>
       <c r="J18">
-        <v>6.4</v>
+        <v>5.6</v>
+      </c>
+      <c r="K18">
+        <v>10.6</v>
       </c>
       <c r="L18">
         <v>4.2</v>
       </c>
-      <c r="M18" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>167.7</v>
-      </c>
-      <c r="E19">
-        <v>142.80000000000001</v>
-      </c>
-      <c r="G19">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="H19">
-        <v>2.6</v>
-      </c>
-      <c r="I19">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J19">
-        <v>7.4</v>
-      </c>
-      <c r="K19">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>13.7</v>
-      </c>
-      <c r="D20">
-        <v>71</v>
-      </c>
-      <c r="E20">
-        <v>148.6</v>
-      </c>
-      <c r="F20">
-        <v>3.31</v>
-      </c>
-      <c r="I20">
-        <v>8</v>
-      </c>
-      <c r="J20">
-        <v>7.1</v>
-      </c>
-      <c r="K20">
-        <v>7.8</v>
-      </c>
-      <c r="L20">
-        <v>3.6</v>
-      </c>
-      <c r="M20">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>130.6</v>
-      </c>
-      <c r="F21">
-        <v>3.5</v>
-      </c>
-      <c r="G21">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="H21">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I21">
-        <v>7</v>
-      </c>
-      <c r="J21">
-        <v>5.6</v>
-      </c>
-      <c r="K21">
-        <v>9.6</v>
-      </c>
-      <c r="L21">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>15.2</v>
-      </c>
-      <c r="D22">
-        <v>87</v>
-      </c>
-      <c r="F22">
-        <v>3.69</v>
-      </c>
-      <c r="K22">
-        <v>10.6</v>
-      </c>
-      <c r="L22">
-        <v>5.6</v>
-      </c>
-      <c r="M22">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F23">
-        <v>3.88</v>
-      </c>
-      <c r="M23">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <v>91.5</v>
-      </c>
-      <c r="L24">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>17.3</v>
-      </c>
-      <c r="M25">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>22.8</v>
-      </c>
-      <c r="D27">
-        <v>108.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>26.6</v>
-      </c>
-      <c r="M28">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D29">
-        <v>135.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>22.6</v>
-      </c>
-      <c r="D30">
-        <v>137.30000000000001</v>
-      </c>
-      <c r="M30">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D32">
-        <v>103.4</v>
-      </c>
-      <c r="M32">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33">
+      <c r="M18">
         <v>4.9000000000000004</v>
       </c>
     </row>
